--- a/week3/weather.xlsx
+++ b/week3/weather.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weather: What Berkeley can expect from this weekend's rain</t>
+          <t>Understanding Weather Risk: The Consequences Will Blow You Away</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Berkeleyside</t>
+          <t>CoreLogic</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.berkeleyside.org/2022/09/15/berkeley-weather-rain-forecast-wildfire</t>
+          <t>https://www.corelogic.com/intelligence/understanding-weather-risk-the-consequences-will-blow-you-away/</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What 'Triple Dip' La Nina Means for Weather in Your Area</t>
+          <t>Hurricane Fiona To Brush Bermuda On Its Way To Battering Atlantic Canada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.bloomberg.com/graphics/2022-la-nina-weather-risk-global-economies/</t>
+          <t>https://weather.com/storms/hurricane/news/2022-09-20-hurricane-fiona-forecast-bermuda-nova-scotia-newfoundland</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alaska is facing its strongest storm in over a decade</t>
+          <t>First Alert Weather Day: Flood Watch now in effect for most of Arizona</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>Arizona's Family</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2022/09/15/weather/alaska-typhoon-remnant-storm-weekend/index.html</t>
+          <t>https://www.azfamily.com/2022/09/21/first-alert-weather-day-flood-watch-now-effect-most-arizona/</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Warmer Weather Coming | WBOC Weather | wboc.com</t>
+          <t>Weather Forecast: September 22, 2022</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WBOC TV 16</t>
+          <t>Daily Leader</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.wboc.com/weather/warmer-weather-coming/article_445dede6-3533-11ed-bc97-cbb92e8897f3.html</t>
+          <t>https://www.dailyleader.com/2022/09/21/weather-forecast-september-22-2022/</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cool weather will be short-lived in WNY</t>
+          <t>Here’s what to expect from Thursday’s weather forecast</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WKBW 7 News Buffalo</t>
+          <t>Boston.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.wkbw.com/weather/cool-weather-will-be-short-lived-in-wny</t>
+          <t>https://www.boston.com/weather/weather/2022/09/21/heres-what-to-expect-from-thursdays-weather-forecast-138/</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Scott Dance joins The Post as a climate and weather reporter</t>
+          <t>Disturbance '98L' could spell tropical trouble for Gulf of Mexico next week</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The Washington Post</t>
+          <t>Fox Weather</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/pr/2022/09/15/scott-dance-joins-post-climate-weather-reporter/</t>
+          <t>https://www.foxweather.com/weather-news/gulf-coast-tropical-disturbance-invest-98l</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extreme weather could push food prices even higher</t>
+          <t>Detroit Weather: The real fall feel moves in tonight.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>WXYZ 7 Action News Detroit</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2022/09/14/economy/heat-inflation-economy-drought/index.html</t>
+          <t>https://www.wxyz.com/weather/forecast/todays-forecast/detroit-weather-big-changes-coming-hot-with-a-chance-of-storms-today</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>September 15, 6 PM Weather Forecast Update-Summer-Like Weather, Followed by Potential of Some Severe Storms Then Brief, but BIG Cool-Down....</t>
+          <t>First Alert Weather Day: Threat of flooding continues for much of Arizona including metro Phoenix</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>wlfi.com</t>
+          <t>Arizona's Family</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.wlfi.com/news/september-15-6-pm-weather-forecast-update-summer-like-weather-followed-by-potential-of-some/article_dfdf1466-3533-11ed-b550-5f22021eddd7.html</t>
+          <t>https://www.azfamily.com/2022/09/21/first-alert-weather-day-threat-flooding-continues-much-arizona-including-metro-phoenix/</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Forecast: Fall-Like Weather Continues</t>
+          <t>This week in weather history: Earliest measurable snow in the QC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NBC10 Boston</t>
+          <t>KWQC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.nbcboston.com/weather/stories-weather/forecast-fall-like-weather-continues/2836005/</t>
+          <t>https://www.kwqc.com/2022/09/21/this-week-weather-history-earliest-measurable-snow-qc/</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tropical Storm Fiona to bring heavy rains to Puerto Rico, nearby islands; future track fuzzy</t>
+          <t>See where storm damage and severe weather were reported in Mid-Michigan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fox Weather</t>
+          <t>WJRT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.foxweather.com/weather-news/bryan-norcross-tropical-storm-fiona-puerto-rico-future-track</t>
+          <t>https://www.abc12.com/weather/see-where-storm-damage-and-severe-weather-were-reported-in-mid-michigan/article_c2c6c860-39c0-11ed-8e36-f340087f53e9.html</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>America's extreme summer weather of 2022, in maps</t>
+          <t>Severe weather threat decreasing, but showers and storms still on tap later Wednesday night</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Axios</t>
+          <t>WGRZ.com</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.axios.com/2022/09/15/americas-extreme-summer-weather-of-2022-maps</t>
+          <t>https://www.wgrz.com/article/weather/strong-to-severe-storms-possible-wednesday-afternoon-and-evening-weather-wny/71-8700c2cd-b664-4c68-b1ac-f8b2e833ffb7</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7News First Alert Weather: We are now entering second summer</t>
+          <t>Cooler weather returns: Northeast Ohio’s Thursday weather forecast</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>KSWO</t>
+          <t>cleveland.com</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.kswo.com/2022/09/15/7news-first-alert-weather-we-are-now-entering-second-summer/</t>
+          <t>https://www.cleveland.com/weather/2022/09/cooler-weather-returns-northeast-ohios-thursday-weather-forecast.html</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BCPS provides survey to determine preferences on inclement weather</t>
+          <t>'Major' weather risk across Utah; flash flooding 'expected' in some areas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>wmar2news.com</t>
+          <t>FOX 13 News Utah</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.wmar2news.com/news/local-news/bcps-provides-survey-to-determine-preferences-on-inclement-weather</t>
+          <t>https://www.fox13now.com/weather/major-weather-risk-across-utah-flash-flooding-expected-in-some-areas</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Van’s Weather Kid: Amiya Washington</t>
+          <t>7News First Alert Weather: Last official day of summer to bring triple digits and near-record high temperatures</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WGHP FOX8 Greensboro</t>
+          <t>KSWO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://myfox8.com/weather-stories/vans-weather-kids/vans-weather-kid-amiya-washington/</t>
+          <t>https://www.kswo.com/2022/09/21/7news-first-alert-weather-last-official-day-summer-bring-triple-digits-near-record-high-temperatures/</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>State will investigate PGW’s rates after summer ‘weather normalization’ debacle</t>
+          <t>China's extreme weather challenges scientists trying to study it</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The Philadelphia Inquirer</t>
+          <t>Nature.com</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.inquirer.com/business/pgw-puc-weather-normalization-adjustment-philadelphia-gas-bills-20220915.html</t>
+          <t>https://www.nature.com/articles/d41586-022-02954-8</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Here’s what to expect from Friday’s weather forecast</t>
+          <t>Pinpoint Weather: Summer ends warm, fall starts cool</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Boston.com</t>
+          <t>WFXRtv.com</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.boston.com/weather/weather/2022/09/15/heres-what-to-expect-from-fridays-weather-forecast-128/</t>
+          <t>https://www.wfxrtv.com/weather/weather-blog/pinpoint-weather-summer-ends-warm-fall-starts-cool/</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Weather events caused most major power outages in the past two decades</t>
+          <t>You have options if a hurricane ruins your vacation or other travel plans</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WUFT</t>
+          <t>Fox Weather</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.wuft.org/news/2022/09/15/weather-events-caused-most-major-power-outages-in-the-past-two-decades/</t>
+          <t>https://www.foxweather.com/learn/what-to-do-hurricane-tropical-storm-noreaster-blizzard-flight-delayed-canceled</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Weather Forecast: Mostly sunny in Hampton Roads</t>
+          <t>NWS predicts sweater weather to hit San Antonio next week</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13newsnow.com WVEC</t>
+          <t>mySA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.13newsnow.com/video/weather/forecast/weather-forecast-mostly-sunny-in-hampton-roads/291-b650a29b-5efd-40c3-b73b-3c706717e3e9</t>
+          <t>https://www.mysanantonio.com/news/weather/article/nws-san-antonio-sweater-weather-17457578.php</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Storming about the weather</t>
+          <t>Minnesota weather: Fall-style weather settles in</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sidneydailynews.com</t>
+          <t>FOX 9 Minneapolis-St. Paul</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.sidneydailynews.com/opinion/columns/227911/storming-about-the-weather</t>
+          <t>https://www.fox9.com/weather/minnesota-weather-fall-style-weather-settles-in</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Weekend weather: Warm, sunny days with cool, clear nights all weekend long | ClarksvilleNow.com</t>
+          <t>Alabama near the top for major weather-related power outages</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Clarksville Now</t>
+          <t>WSFA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://clarksvillenow.com/local/weekend-weather-warm-sunny-days-with-cool-clear-nights-all-weekend-long/</t>
+          <t>https://www.wsfa.com/2022/09/21/alabama-near-top-major-weather-related-power-outages/</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mild to cool weather continues thru the weekend before rain arrives Monday</t>
+          <t>Cooler weather kicking Minnesota fall colors into drive</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KSBY News</t>
+          <t>MPR News</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.ksby.com/weather/mild-to-cool-weather-continues-thru-the-weekend-before-rain-arrives-monday</t>
+          <t>https://www.mprnews.org/story/2022/09/21/cooler-weather-kicks-minnesota-fall-colors-into-drive</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wicked weather spawns possible scud cloud over Disney World</t>
+          <t>Crisp fall weather forecast to hit NYC this week</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WKMG News 6 &amp; ClickOrlando</t>
+          <t>New York Post</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.clickorlando.com/weather/2022/09/16/wicked-weather-spawns-scud-cloud-over-disney-world/</t>
+          <t>https://nypost.com/2022/09/21/crisp-fall-weather-will-hit-nyc-this-week-forecasters-say/</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Quiet weather rolls on to close out the week</t>
+          <t>Cooler weather is just around the corner for St. Louis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ABC 36 News</t>
+          <t>KSDK.com</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.wtvq.com/quiet-weather-rolls-on-to-close-out-the-week/</t>
+          <t>https://www.ksdk.com/video/weather/forecast/cooler-weather-is-just-around-the-corner-for-st-louis/63-35c339ab-c474-4522-ac60-ecde62d0e8e8</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Perspective | Need cool-weather plants to amp up fall curb appeal? We have tips.</t>
+          <t>Weather | News, Sports, Jobs</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>The Washington Post</t>
+          <t>Marquette Mining Journal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/home/2022/09/22/tips-cool-weather-outdoor-plants/</t>
+          <t>https://www.miningjournal.net/news/records/weather/2022/09/weather-1871/</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PM Update: Excellent weather persists through Thursday</t>
+          <t>Congressional bill would allow for paid time off during severe weather outbreaks</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The Washington Post</t>
+          <t>Fox Weather</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.washingtonpost.com/weather/2022/09/14/dc-area-forecast-nice-thursday/</t>
+          <t>https://www.foxweather.com/weather-news/severe-weather-pto</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Can we ask for better weather?</t>
+          <t>More cool weather with some rain tomorrow</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WTOK</t>
+          <t>KEVN</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.wtok.com/2022/09/15/can-we-ask-better-weather/</t>
+          <t>https://www.blackhillsfox.com/2022/09/21/more-cool-weather-with-some-rain-tomorrow/</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Warmer temps, but low humidity Friday</t>
+          <t>Cooler air settles in as we begin the fall season tomorrow</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WJW FOX 8 News Cleveland</t>
+          <t>WXOW.com</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://fox8.com/weather/warmer-temps-but-low-humidity-friday/</t>
+          <t>https://www.wxow.com/weather/cooler-air-settles-in-as-we-begin-the-fall-season-tomorrow/article_5c452286-39e7-11ed-8477-03998d5eb27b.html</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dry night followed by a stormy end to the week</t>
+          <t>9-21-22 Storm Team Forecast | Weather | wlfi.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WXOW.com</t>
+          <t>wlfi.com</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.wxow.com/weather/dry-night-followed-by-a-stormy-end-to-the-week/article_610ece32-352f-11ed-a3ce-635cd4795207.html</t>
+          <t>https://www.wlfi.com/weather/9-21-22-storm-team-forecast/article_bfb42ad2-39fc-11ed-912c-5f88a0d9342f.html</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Football, festival forecast features fantastic weather!</t>
+          <t>Morning clouds Thursday, followed by afternoon sunshine | Weather | kezi.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WSLS 10</t>
+          <t>KEZI TV</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.wsls.com/weather/2022/09/16/football-festival-forecast-features-fantastic-weather/</t>
+          <t>https://www.kezi.com/weather/morning-clouds-thursday-followed-by-afternoon-sunshine/article_cebc95cc-39f8-11ed-bb73-570800cef067.html</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ahead of severe weather season, get an emergency kit</t>
+          <t>Ways to Eliminate Pain When the Weather Changes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KXAN.com</t>
+          <t>KATU</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.kxan.com/weather-traffic-qas/ahead-of-severe-weather-season-get-an-emergency-kit/</t>
+          <t>https://katu.com/afternoon-live/lifestyle-health/ways-to-eliminate-pain-when-the-weather-changes</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Matt Smith helps Al Roker forecast the weather on Today show</t>
+          <t>Metro Detroit Weather: Severe Thunderstorm Warning issued Wednesday</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Entertainment Weekly News</t>
+          <t>FOX 2 Detroit</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://ew.com/tv/matt-smith-al-roker-weather-forecast-today/</t>
+          <t>https://www.fox2detroit.com/weather/metro-detroit-weather-severe-thunderstorm-issued-wednesday</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Beautiful weather staying around for the weekend</t>
+          <t>Summit County summer weather breaks rainfall, high temperature records</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>KERO 23 ABC News Bakersfield</t>
+          <t>Summit Daily</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.turnto23.com/weather/beautiful-weather-staying-around-for-the-weekend</t>
+          <t>https://www.summitdaily.com/news/summit-county-summer-weather-breaks-rainfall-high-temperature-records/</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pinpoint Weather: A Beautiful Weekend is Ahead</t>
+          <t>Rain, cooler weather slows Cedar Creek Fire</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WFXRtv.com</t>
+          <t>Fox 12 Oregon</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.wfxrtv.com/weather/weather-blog/pinpoint-weather-a-beautiful-weekend-is-ahead/</t>
+          <t>https://www.kptv.com/2022/09/21/rain-cooler-weather-slows-cedar-creek-fire/</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Warmer and drier weather continues through the weekend</t>
+          <t>Evening weather forecast 9/21/22</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>KRQE News 13</t>
+          <t>WAMC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.krqe.com/weather/video-forecast/warmer-and-drier-weather-continues-through-the-weekend/</t>
+          <t>https://www.wamc.org/weather/2022-09-21/evening-weather-forecast-9-21-22</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Friday Bristol Xfinity race: Start times, TV info, weather</t>
+          <t>MTSU assistant professor gives insight about this year's fall weather</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NASCAR on NBC Sports</t>
+          <t>Daily News Journal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nascar.nbcsports.com/2022/09/15/friday-bristol-xfinity-race-start-times-tv-info-weather/</t>
+          <t>https://www.dnj.com/story/news/2022/09/22/mtsu-assistant-professor-gives-insight-about-this-years-fall-weather/69509373007/</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>First Alert Weather: Chances for showers, storms this weekend</t>
+          <t>Cooler weather is here!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>WSAW</t>
+          <t>Lincoln</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.wsaw.com/2022/09/15/first-alert-weather-rain-chances-move-back-weekend/</t>
+          <t>https://www.klkntv.com/cooler-weather-is-here/</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lehigh Valley weather: Western wildfire smoke will turn skies orange in Pa. and N.J.</t>
+          <t>Fall weather moves into the Brainerd lakes area</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>lehighvalleylive.com</t>
+          <t>Brainerd Dispatch</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.lehighvalleylive.com/weather/2022/09/lehigh-valley-weather-western-wildfire-smoke-will-turn-skies-orange-in-pa-and-nj.html</t>
+          <t>https://www.brainerddispatch.com/news/local/fall-weather-moves-into-the-brainerd-lakes-area</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>National Weather Service updates winter outlook for Minnesota</t>
+          <t>Wildland fire experts seek to understand changes in weather, behavior</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bring Me The News</t>
+          <t>The Arizona Republic</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://bringmethenews.com/minnesota-weather/national-weather-service-updates-winter-outlook-for-minnesota</t>
+          <t>https://www.azcentral.com/story/news/local/arizona-environment/2022/09/21/wildland-fire-experts-seek-understand-changes-weather-behavior/10436097002/</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fall weather forecast in Colorado</t>
+          <t>The hot weather ends, the fall-like weather begins</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>KOAA News 5</t>
+          <t>MyWabashValley.com</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.koaa.com/weather/weather-science/fall-weather-forecast-in-colorado</t>
+          <t>https://www.mywabashvalley.com/weather/the-hot-weather-ends-the-fall-like-weather-begins/</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>How Alabama high schools decide on moving football games when weather threatens</t>
+          <t>Watches, Warnings End as Severe Weather Exits Chicago Area</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tuscaloosa Magazine</t>
+          <t>NBC Chicago</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.tuscaloosanews.com/story/sports/2022/09/15/alabama-high-school-football-weather-delay-games-rescheduled/68723073007/</t>
+          <t>https://www.nbcchicago.com/weather/potentially-severe-storms-head-toward-chicago-area/2945011/</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Orlando weather forecast: Storms returns to Central Florida on Thursday</t>
+          <t>Much cooler weather moving through with periods of rain</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FOX 35 Orlando</t>
+          <t>KSNT News</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.fox35orlando.com/news/orlando-weather-forecast-september-15-2022</t>
+          <t>https://www.ksnt.com/weather/much-cooler-weather-moving-through-with-periods-of-rain/</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Denver weather: Cooler temperatures and afternoon storms expected Thursday</t>
+          <t>Denton Community Stays Cool as Summer Weather Lingers Into Fall</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The Denver Post</t>
+          <t>NBC 5 Dallas-Fort Worth</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.denverpost.com/2022/09/15/denver-weather-cooler-temperatures-storms-thursday/</t>
+          <t>https://www.nbcdfw.com/news/local/denton-community-stays-cool-as-summer-weather-lingers-into-fall/3077795/</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Evening weather forecast 9/15/22</t>
+          <t>Thursday Web Weather</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WAMC</t>
+          <t>Reno</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.wamc.org/weather/2022-09-15/evening-weather-forecast-9-15-22</t>
+          <t>https://www.kolotv.com/video/2022/09/22/thursday-web-weather/</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1 Notable NFL Game Could Have Bad Weather This Sunday</t>
+          <t>Active weather Wednesday brings rain, t-storms to Idaho</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Athlon Sports</t>
+          <t>Idaho News 6 Boise Twin Falls</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://athlonsports.com/nfl/1-notable-nfl-game-could-have-bad-weather-this-sunday</t>
+          <t>https://www.kivitv.com/weather/active-weather-wednesday-brings-rain-t-storms-to-idaho</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NFL World Reacts To Unfortunate Sunday Weather News</t>
+          <t>Jaret’s 6 First Alert Forecast: Much cooler weather with chances for showers</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The Spun</t>
+          <t>WOWT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://thespun.com/nfl/nfc-west/san-francisco-49ers/nfl-world-reacts-to-unfortunate-sunday-weather-news</t>
+          <t>https://www.wowt.com/2022/09/21/jarets-6-first-alert-forecast-much-cooler-weather-with-chances-showers/</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Eagle River fishing closures modified by cooler weather</t>
+          <t>Weather Wagers Week 5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Vail Daily</t>
+          <t>ABC27</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.vaildaily.com/news/eagle-river-fishing-closures-modified-by-cooler-weather/</t>
+          <t>https://www.abc27.com/news/top-stories/weather-wagers-week-5/</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nice weather for this evening's games | News | ktbs.com</t>
+          <t>Threat of severe weather moves into Utah, watch issued through 8 p.m.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>KTBS</t>
+          <t>KSL NewsRadio</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.ktbs.com/news/nice-weather-for-this-evenings-games/article_9d175d5c-353b-11ed-93d8-2707486355ba.html</t>
+          <t>https://kslnewsradio.com/1975578/threat-of-severe-weather-moves-into-utah-watch-issued-through-8-p-m/</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Weather slows growth of Mosquito Fire putting smoke in Reno area</t>
+          <t>Mid-Week Tropical Weather Update</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>KOLO</t>
+          <t>KATC News</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.kolotv.com/2022/09/16/weather-slows-growth-mosquito-fire-putting-smoke-reno-area/</t>
+          <t>https://www.katc.com/news/mid-week-tropical-weather-update</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Minnesota weather: Warm and muggy; chance for storms this weekend</t>
+          <t>Wednesday Weather: Morning showers, trades fade through the day</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FOX 9 Minneapolis-St. Paul</t>
+          <t>KITV Honolulu</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.fox9.com/news/minnesota-weather-warm-muggy-chance-for-storms-this-weekend</t>
+          <t>https://www.kitv.com/news/local/wednesday-weather-morning-showers-trades-fade-through-the-day/article_1b99f60e-39b9-11ed-bb0e-1f8a900a2265.html</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Under the weather: Fall-like temperatures finally expected over the weekend</t>
+          <t>Portland Wednesday weather: Summer warmth holds on – with ‘slight chance of showers’</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>My Edmonds News</t>
+          <t>OregonLive</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://myedmondsnews.com/2022/09/under-the-weather-fall-like-temperatures-finally-expected-over-the-weekend/</t>
+          <t>https://www.oregonlive.com/weather/2022/09/portland-wednesday-weather-summer-warmth-holds-on-with-slight-chance-of-showers.html</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Friday Web Weather</t>
+          <t>Trail-mix of weather welcomes 1st days of autumn</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KOLO</t>
+          <t>WDAM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.kolotv.com/2022/09/16/friday-web-weather/</t>
+          <t>https://www.wdam.com/2022/09/21/trail-mix-weather-welcomes-1st-days-autumn/</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Severe weather possible tomorrow | News | custercountychief.com</t>
+          <t>Weather gallery for September 21, 2022</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Custer County Chief</t>
+          <t>INFORUM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.custercountychief.com/news/severe-weather-possible-tomorrow/article_b3cf7218-3532-11ed-b13e-fbe57de9b92f.html</t>
+          <t>https://www.inforum.com/weather/weather-gallery-for-september-21-2022</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Update: Coast Guard Called to Help Solo Rower Stalled by Weather</t>
+          <t>Madison HVAC Weather Center: Weather Forecast | Sept, 21 2022</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Big Island Now</t>
+          <t>WBONTV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://bigislandnow.com/2022/09/15/weather-delays-california-mans-arrival-to-big-island-after-solo-row-across-pacific/</t>
+          <t>https://wbontv.com/2022/09/21/madison-hvac-weather-center-weather-forecast-sept-21-2022/</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>How does La Nina impact Ohio, Pa. winter weather?</t>
+          <t>Wednesday NJ weather: Summer ends with one more nice, warm day</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>WKBN.com</t>
+          <t>New Jersey 101.5 FM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.wkbn.com/weather/how-does-la-nina-impact-ohio-pa-winter-weather/</t>
+          <t>https://nj1015.com/wednesday-nj-weather-summer-ends-with-one-more-nice-warm-day/</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>First Alert Weather</t>
+          <t>Weather Wise Wednesday: September heat | Weather | newspressnow.com</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A windy Friday is ahead with a good chance of some rain with cooler temps this weekend</t>
+          <t>News-Press Now</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.yaktrinews.com/first-alert-weather-a-windy-friday-is-ahead-with-a-good-chance-of-some-rain-with-cooler-temps-this-weekend-jason/</t>
+          <t>https://www.newspressnow.com/news/local_news/weather/weather-wise-wednesday-september-heat/article_0d2176e6-39ba-11ed-8f70-f379c0f76f4c.html</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nifty Or Thrifty: Weather Cup (Ultra League) | Pokémon GO Hub</t>
+          <t>How crowdsourced weather observations help cities prepare for extreme heat</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pokémon GO Hub</t>
+          <t>Fast Company</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://pokemongohub.net/post/pvp/nifty-or-thrifty-weather-cup-ultra-league/</t>
+          <t>https://www.fastcompany.com/90791435/how-crowdsourced-weather-observations-help-cities-prepare-for-extreme-heat</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Bay Area weather forecast: A cool, breezy outlook brings the bonus of improved air quality</t>
+          <t>Early October warm and dry weather</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>San Francisco Chronicle</t>
+          <t>INFORUM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.sfchronicle.com/weather-forecast/article/SF-Bay-Area-weather-17442619.php</t>
+          <t>https://www.inforum.com/weather/early-october-warm-and-dry-weather</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Man And Dog Walk Around The World, And Weather Was With Them The Entire Time</t>
+          <t>Calendar says fall, weather says summer</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>The Weather Channel</t>
+          <t>KWTX</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://weather.com/news/news/2022-09-15-walking-around-world-tom-turcich</t>
+          <t>https://www.kwtx.com/2022/09/21/calendar-says-fall-weather-says-summer/</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Friday’s weather: Sunny, breezy and cool, high of 70</t>
+          <t>Despite cool, wet weather, NorCal firefighters are reminding all of us that fire season is not over</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Manchester Ink Link</t>
+          <t>Action News Now</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://manchesterinklink.com/fridays-weather-sunny-breezy-and-cool-high-of-70/</t>
+          <t>https://www.actionnewsnow.com/news/despite-cool-wet-weather-norcal-firefighters-are-reminding-all-of-us-that-fire-season-is/article_1e80b0c0-39c7-11ed-802a-33f83f6da691.html</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LSU football: Weather report for the Tigers vs. Mississippi State</t>
+          <t>Live Doppler 13 Weather Blog: Steamy, stormy end to summer</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Death Valley Voice</t>
+          <t>WTHR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://deathvalleyvoice.com/2022/09/15/lsu-football-weather-report-tigers-vs-mississippi-state/</t>
+          <t>https://www.wthr.com/article/weather/weather-blog/live-doppler-13-weather-blog-steamy-stormy-end-to-summer-storm-chances-hot-temperatures/531-5a0eaa9c-85e8-4ff0-a332-87b77a12044c</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Weather What: Here's why Oakland's weather conditions make for great air travel</t>
+          <t>Major Disaster Declared For Puerto Rico After Hurricane Fiona</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>KGO-TV</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://abc7news.com/oakland-international-airport-weather-conditions-oak-bay-area-airports/12230208/</t>
+          <t>https://weather.com/news/news/2022-09-20-hurricane-fiona-puerto-rico-dominican-republic-turks</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Thursday Morning Weather</t>
+          <t>NEXT Weather: Overnight lows to fall into the 30s in parts of Minnesota</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Light trades to Persist Through Weekend</t>
+          <t>CBS News</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.kitv.com/news/local/thursday-morning-weather---light-trades-to-persist-through-weekend/article_4730a548-3508-11ed-9a11-f36a5479d530.html</t>
+          <t>https://www.cbsnews.com/minnesota/news/next-weather-cooler-weather-wednesday/</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Weather Now: ChillyTonight; Sunny, Fall-like End to the Week</t>
+          <t>Governor Newsom Takes Action to Support Communities Recovering from Extreme Weather Events Across California | California Governor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WPRI.com</t>
+          <t>Office of Governor Gavin Newsom</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.wpri.com/weather/weather-now/weather-now-crisp-autumn-air-today-and-tonight/</t>
+          <t>https://www.gov.ca.gov/2022/09/16/governor-newsom-takes-action-to-support-communities-recovering-from-extreme-weather-events-across-california/</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Maryland Weather: Solid Sunshine Thursday</t>
+          <t>Perfect Weather, Wonderful turnout for Bark in the Park at Fort Toulouse</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CBS News</t>
+          <t>Elmore Autauga News</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.cbsnews.com/baltimore/news/maryland-weather-solid-sunshine-thursday/</t>
+          <t>https://elmoreautauganews.com/2022/09/21/perfect-weather-wonderful-turnout-for-bark-in-the-park-at-fort-toulouse/</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cooler, Wetter Weather Brings California a Moment of Relief</t>
+          <t>Weather in the coming weeks to affect fall foliage in our region</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>The New York Times</t>
+          <t>WPTZ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.nytimes.com/2022/09/10/us/california-fires-rain-floods-heat.html</t>
+          <t>https://www.mynbc5.com/article/weather-in-the-coming-weeks-to-affect-fall-foliage-in-our-region/41320898</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Weather proves to be only obstacle for Miami Central football</t>
+          <t>Chicago First Alert Weather: Storm chance south of I-80 Wednesday</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Scorebook Live</t>
+          <t>CBS Chicago</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://news.scorebooklive.com/florida/2022/09/16/weather-proves-to-be-only-obstacle-for-miami-central-football</t>
+          <t>https://www.cbsnews.com/chicago/news/chicago-first-alert-weather-storm-chance-south-of-i-80-wednesday/</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Funding from Freshwater Collaborative of Wisconsin supports UWM's Innovative Weather program</t>
+          <t>Tropical Storm Gaston maintains strength in Atlantic</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>University of Wisconsin–Milwaukee</t>
+          <t>Bay News 9</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://uwm.edu/news/funding-from-freshwater-collaborative-of-wisconsin-supports-uwms-innovative-weather-program/</t>
+          <t>https://www.baynews9.com/fl/tampa/weather/2022/09/19/tracking-gaston</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Thursday Afternoon Weather At Your Fingertips</t>
+          <t>Weather Forecast: Widespread rain Thursday</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>KLTV</t>
+          <t>KPAX News</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.kltv.com/2022/09/15/thursday-afternoon-weather-your-fingertips/</t>
+          <t>https://www.kpax.com/weather/weather-forecast-widespread-rain-thursday</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Invest 96L could become a tropical depression as it approaches the Caribbean islands, Puerto Rico</t>
+          <t>DTN Ag Weather Brief</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fox Weather</t>
+          <t>DTN The Progressive Farmer</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.foxweather.com/weather-news/tropics-turn-unusually-quiet-september</t>
+          <t>https://www.dtnpf.com/agriculture/web/ag/news/article/2022/09/21/dtn-ag-weather-brief-2</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>First Alert Weather Day: Thunderstorms move south of Casa Grande; Tornado warning expires</t>
+          <t>Weather Blog</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Arizona's Family</t>
+          <t>A cold front is moving through on the last full day of summer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.azfamily.com/2022/09/12/first-alert-weather-day-thunderstorms-moving-south-casa-grande-tornado-warning-expires/</t>
+          <t>https://www.kshb.com/weather/weather-blog-a-cold-front-is-moving-through-on-the-last-full-day-of-summer</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A soggy start to the week! Here’s a timeline</t>
+          <t>Arkansas Storm Team Weather Blog: Historic heat Wednesday afternoon</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>WJW FOX 8 News Cleveland</t>
+          <t>KARK</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://fox8.com/weather/soggy-sunday-forecast-when-well-see-breaks-of-sun/</t>
+          <t>https://www.kark.com/weather/weather-headlines/arkansas-storm-team-weather-blog-historic-heat-wednesday-afternoon/</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Weather Alert: Hurricane Kay</t>
+          <t>Thunderstorm chances increase by Saturday evening; Severe weather is possible</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>US Embassy &amp; Consulates in Mexico</t>
+          <t>MPR News</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://mx.usembassy.gov/weather-alert-hurricane-kay/</t>
+          <t>https://www.mprnews.org/story/2022/09/17/thunderstorm-chances-increase-by-by-saturday-evening-severe-weather-is-possible</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Travel news: Wild weather, clifftop hotels and all eyes on the UK</t>
+          <t>Bay Area weather forecast: Storm to bring sporadic rain, thunder</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>San Francisco Chronicle</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/travel/article/pandemic-travel-news-weather-photography-clifftop-hotels/index.html</t>
+          <t>https://www.sfchronicle.com/weather-forecast/article/rain-bay-area-17450605.php</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>A named tropical system is likely by Labor Day. Here's how it could affect weekend plans</t>
+          <t>Current Weather Activity Calls for Action: Get Ready Today</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>FEMA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2022/08/29/weather/weather-news-labor-day-tropical-system-texas-rain-wxn/index.html</t>
+          <t>https://www.fema.gov/press-release/20220914/current-weather-activity-calls-action-get-ready-today</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>La Nina winter 2022-23 could mean tornado outbreaks, blizzards and everything in between</t>
+          <t>Weekend plans? Here's how wet weather could impact you</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fox Weather</t>
+          <t>ABC10.com KXTV</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.foxweather.com/weather-news/la-nina-2022-2023-forecast</t>
+          <t>https://www.abc10.com/article/weather/weather-local/weekend-plans-heres-how-the-weather-could-impact-you/103-3f5dfe05-de98-4a76-8eb3-51c0e65b54ab</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Just a small rise in Earth's temperature could cause irreversible ecosystem and weather changes</t>
+          <t>Extreme weather could push food prices even higher</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Science</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.science.org/content/article/just-small-rise-earth-s-temperature-could-cause-irreversible-ecosystem-and-weather</t>
+          <t>https://www.cnn.com/2022/09/14/economy/heat-inflation-economy-drought/index.html</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chicago weather radar: Storms, gusty winds possible for Chicago area following Severe Thunderstorm Warning, Watch</t>
+          <t>Storm brings first round of rain and windy weather to S.F. Bay Area today</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WLS-TV</t>
+          <t>San Francisco Chronicle</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://abc7chicago.com/chicago-weather-forecast-severe-hourly/12175497/</t>
+          <t>https://www.sfchronicle.com/weather-forecast/article/bay-area-rain-weather-17447736.php</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Weather Still Favorable For Artemis Launch</t>
+          <t>Dew point is a better way to read the weather forecast</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>The Weather Channel</t>
+          <t>Vox.com</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://weather.com/science/space/news/2022-08-24-artemis-launch-weather</t>
+          <t>https://www.vox.com/culture/23352672/dew-point-humidity-weather-apps-explained</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>August 29, 12:30 PM Weather Forecast Update-Potentially Two Rounds of Storms with Severe Weather Risk</t>
+          <t>Chicago weather radar: Storms, gusty winds possible for Chicago area following Severe Thunderstorm Warning, Watch</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>wlfi.com</t>
+          <t>WLS-TV</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.wlfi.com/news/august-29-12-30-pm-weather-forecast-update-potentially-two-rounds-of-storms-with-severe/article_7e24ca9c-27b2-11ed-aab2-cf11bf2b1922.html</t>
+          <t>https://abc7chicago.com/chicago-weather-forecast-severe-hourly/12175497/</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>N.J. weather: Scattered thunderstorms, showers in forecast for today</t>
+          <t>Cooler, Wetter Weather Brings California a Moment of Relief</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>NJ.com</t>
+          <t>The New York Times</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.nj.com/weather/2022/08/nj-weather-scattered-thunderstorms-showers-in-forecast-for-today.html</t>
+          <t>https://www.nytimes.com/2022/09/10/us/california-fires-rain-floods-heat.html</t>
         </is>
       </c>
     </row>
@@ -2056,17 +2056,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Governor Abbott Holds Statewide Weather Briefing As Excessive Rain, Flash Flooding Threatens Texas</t>
+          <t>Weather Looks Good For Saturday Artemis Launch Attempt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Office of the Texas Governor</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://gov.texas.gov/news/post/governor-abbott-holds-statewide-weather-briefing-as-excessive-rain-flash-flooding-threatens-texas</t>
+          <t>https://weather.com/science/space/news/2022-09-02-artemis-launch-cape-canaveral-titusville-weather</t>
         </is>
       </c>
     </row>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>A Polar Vortex is emerging in the Stratosphere over the North Pole and will impact the weather as we head closer to Winter 2022/2023</t>
+          <t>Weather Still Favorable For Artemis Launch</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Severe Weather Europe</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.severe-weather.eu/global-weather/polar-vortex-cooling-forecast-winter-2022-2023-influence-united-states-europe-fa/</t>
+          <t>https://weather.com/science/space/news/2022-08-24-artemis-launch-weather</t>
         </is>
       </c>
     </row>
@@ -2096,17 +2096,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Spectacular images revealed in weather photography competition</t>
+          <t>N.J. weather: Here’s how the Labor Day weekend forecast is shaping up</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CNN</t>
+          <t>NJ.com</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/travel/article/weather-photographer-2022-images-intl-scli-scn/index.html</t>
+          <t>https://www.nj.com/weather/2022/08/nj-weather-heres-how-the-labor-day-weekend-forecast-is-shaping-up.html</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Labor Day Forecast: Flood Watch in NYC as Heavy Rain Closes Out Holiday</t>
+          <t>September Can Be Full Of Weather Changes – Here's What To Expect</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NBC New York</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.nbcnewyork.com/weather/weather-near-me-heres-your-mostly-good-news-holiday-weekend-forecast/3845547/</t>
+          <t>https://weather.com/science/weather-explainers/news/2022-09-01-september-changes-temperature-daylight-hurricanes-snow</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hurricane Earl Brushes Bermuda After Danielle Became the Season's First</t>
+          <t>Iowa vs. Nevada: Updated Vegas Line + Weather Forecast</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>The Weather Channel</t>
+          <t>Black Heart Gold Pants</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://weather.com/storms/hurricane/news/2022-09-03-tropical-storm-hurricane-danielle-earl</t>
+          <t>https://www.blackheartgoldpants.com/2022/9/16/23355041/iowa-hawkeyes-vs-nevada-wolfpack-updated-vegas-line-weather-forecast</t>
         </is>
       </c>
     </row>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Weather Blog: A week's worth of weather changes</t>
+          <t>Hurricane Kay Brought Gusty Winds, Flooding to Baja California, Then Rare California Tropical Threat (RECAP)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KSHB 41 Kansas City News</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.kshb.com/weather/weather-blog-a-weeks-worth-of-weather-changes</t>
+          <t>https://weather.com/storms/hurricane/news/2022-09-08-hurricane-tropical-storm-kay-rainfall-flood-southern-california</t>
         </is>
       </c>
     </row>
@@ -2176,17 +2176,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>August 24, 6 PM Weather Forecast Update-A Few Storms Ahead with Bursts of Hotter Weather (But a Brief Cool-Down Next Week) &amp; Very Active Tropics</t>
+          <t>NYC weather: Labor Day forecast has rain on way to Staten Island</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>wlfi.com</t>
+          <t>SILive.com</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.wlfi.com/news/august-24-6-pm-weather-forecast-update-a-few-storms-ahead-with-bursts-of-hotter/article_9f3d5248-23c6-11ed-b355-eb4a66efef19.html</t>
+          <t>https://www.silive.com/weather/2022/09/nyc-weather-labor-day-forecast-has-rain-on-way-to-staten-island.html</t>
         </is>
       </c>
     </row>
@@ -2196,17 +2196,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>August 26, 5 PM Weather Forecast Update-Surge of Hot, Humid Weather For the Weekend Then Opportunity for Storms with Isolated Severe Weather Risk</t>
+          <t>N.J. weather: Scattered thunderstorms, showers in forecast for today</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>wlfi.com</t>
+          <t>NJ.com</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.wlfi.com/news/august-26-5-pm-weather-forecast-update-surge-of-hot-humid-weather-for-the-weekend/article_08dbfb90-2567-11ed-87df-c31ce8b4ad21.html</t>
+          <t>https://www.nj.com/weather/2022/08/nj-weather-scattered-thunderstorms-showers-in-forecast-for-today.html</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Iowa Hawkeyes vs. Iowa State: Updated Vegas Line + Weather Forecast</t>
+          <t>La Nina winter 2022-23 could mean tornado outbreaks, blizzards and everything in between</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Black Heart Gold Pants</t>
+          <t>Fox Weather</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.blackheartgoldpants.com/2022/9/9/23343032/iowa-hawkeyes-football-vs-iowa-state-cyclones-updated-vegas-line-weather-forecast-kirk-ferentz-bhgp</t>
+          <t>https://www.foxweather.com/weather-news/la-nina-2022-2023-forecast</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Orlando weather forecast: Hot and humid with some thunderstorms this Labor Day weekend</t>
+          <t>Hurricane Earl Brushes Bermuda After Danielle Became the Season's First</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>FOX 35 Orlando</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.fox35orlando.com/news/orlando-weather-forecast-weather-60-percent-favorable-for-artemis-launch-from-florida</t>
+          <t>https://weather.com/storms/hurricane/news/2022-09-03-tropical-storm-hurricane-danielle-earl</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cold front is on the way. Do not expect a big weather shake-up.</t>
+          <t>NFL Week 1 Weather Updates: Rain, wind, heat in forecast could affect fantasy start 'em, sit 'em decisions, especially for 49ers-Bears</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>KBTX</t>
+          <t>Sporting News</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.kbtx.com/2022/09/11/cold-front-is-way-do-not-expect-big-weather-shake-up/</t>
+          <t>https://www.sportingnews.com/us/fantasy/news/nfl-week-1-weather-updates-rain-wind-heat-forecast-fantasy-start-em-sit-em/w3qhsxc9rwlndpknkyl1ewad</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NASA, NOAA Invite Media to Polar Orbiting Weather Satellite Launch</t>
+          <t>A soggy start to the week! Here’s a timeline</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>NASA</t>
+          <t>WJW FOX 8 News Cleveland</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.nasa.gov/press-release/nasa-noaa-invite-media-to-polar-orbiting-weather-satellite-launch</t>
+          <t>https://fox8.com/weather/soggy-sunday-forecast-when-well-see-breaks-of-sun/</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2296,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Houston weather: More heavy rain expected over next few days</t>
+          <t>August 29, 12:30 PM Weather Forecast Update-Potentially Two Rounds of Storms with Severe Weather Risk</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FOX 26 Houston</t>
+          <t>wlfi.com</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.fox26houston.com/weather/houston-weather-more-heavy-rain-expected</t>
+          <t>https://www.wlfi.com/news/august-29-12-30-pm-weather-forecast-update-potentially-two-rounds-of-storms-with-severe/article_7e24ca9c-27b2-11ed-aab2-cf11bf2b1922.html</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Orlando weather forecast: Heavy rain, possible storms over Central Florida on Friday</t>
+          <t>Annual Peak Of Atlantic Hurricane Season Arrives This Weekend</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>FOX 35 Orlando</t>
+          <t>The Weather Channel</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.fox35orlando.com/news/orlando-weather-forecast-september-8-2022</t>
+          <t>https://weather.com/storms/hurricane/news/2022-09-07-hurricane-season-annual-september-peak</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cooler, but pleasant weather today | Weather | wktv.com</t>
+          <t>Minnesota weather: Warm and muggy; chance for storms this weekend</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>WKTV</t>
+          <t>FOX 9 Minneapolis-St. Paul</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.wktv.com/weather/cooler-but-pleasant-weather-today/article_a4ffa97c-29cc-11ed-ba86-e79a52341f1d.html</t>
+          <t>https://www.fox9.com/news/minnesota-weather-warm-muggy-chance-for-storms-this-weekend</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Life In Louisiana’s Forever Storm</t>
+          <t>August 24, 6 PM Weather Forecast Update-A Few Storms Ahead with Bursts of Hotter Weather (But a Brief Cool-Down Next Week) &amp; Very Active Tropics</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>The Weather Channel</t>
+          <t>wlfi.com</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://weather.com/photos/news/2022-08-26-lake-charles-louisiana-hurricane-laura-storm</t>
+          <t>https://www.wlfi.com/news/august-24-6-pm-weather-forecast-update-a-few-storms-ahead-with-bursts-of-hotter/article_9f3d5248-23c6-11ed-b355-eb4a66efef19.html</t>
         </is>
       </c>
     </row>
@@ -2396,17 +2396,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Wetter weather builds in to close out the week</t>
+          <t>A named tropical system is likely by Labor Day. Here's how it could affect weekend plans</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>WTOC</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.wtoc.com/2022/09/08/wetter-weather-builds-close-out-week/</t>
+          <t>https://www.cnn.com/2022/08/29/weather/weather-news-labor-day-tropical-system-texas-rain-wxn/index.html</t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Delta, the NFL, and the U.S. Air Force are turning to this app to prepare for extreme weather</t>
+          <t>Record heat and flooding: What to expect for Labor Day weekend weather across the US</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CNBC</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://www.cnbc.com/2022/08/19/delta-nfl-air-force-use-tomorrowio-to-prepare-for-extreme-weather.html</t>
+          <t>https://www.cnn.com/2022/09/02/weather/holiday-weekend-record-heat-tropics-and-flooding/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Northern California's Mosquito Fire, In Photos</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>The Weather Channel</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://weather.com/photos/news/2022-09-08-mosquito-fire-images</t>
         </is>
       </c>
     </row>
